--- a/public/file.xlsx
+++ b/public/file.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MZace\Desktop\db\src\app\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MZace\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B2D1212F-930E-499D-A2F6-F7BFA7D3CE76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FA272AC-9337-409E-8C60-8A7DC6C72F80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{30E6CC60-8449-417D-95EE-E16F25319005}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="53">
   <si>
     <t>Name</t>
   </si>
@@ -81,9 +81,6 @@
     <t>CGPA</t>
   </si>
   <si>
-    <t>Abdullah</t>
-  </si>
-  <si>
     <t>l1s22bscs0036</t>
   </si>
   <si>
@@ -117,9 +114,6 @@
     <t>750o800</t>
   </si>
   <si>
-    <t>Ali</t>
-  </si>
-  <si>
     <t>l1f22bscs0366</t>
   </si>
   <si>
@@ -147,9 +141,6 @@
     <t>280o800</t>
   </si>
   <si>
-    <t>Ahmed</t>
-  </si>
-  <si>
     <t>l1s22bscs0049</t>
   </si>
   <si>
@@ -171,9 +162,6 @@
     <t>799o800</t>
   </si>
   <si>
-    <t>Umar</t>
-  </si>
-  <si>
     <t>l1s20bscs0160</t>
   </si>
   <si>
@@ -190,6 +178,21 @@
   </si>
   <si>
     <t>680o800</t>
+  </si>
+  <si>
+    <t>Muhammad Daniyal</t>
+  </si>
+  <si>
+    <t>Muhammad Umar</t>
+  </si>
+  <si>
+    <t>Rao Saeed</t>
+  </si>
+  <si>
+    <t>Ahmed Khan</t>
+  </si>
+  <si>
+    <t>Muhammad Ali</t>
   </si>
 </sst>
 </file>
@@ -566,7 +569,7 @@
   <dimension ref="A1:O6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:O6"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -620,46 +623,46 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" t="s">
         <v>15</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>16</v>
       </c>
-      <c r="C2" t="s">
-        <v>17</v>
-      </c>
       <c r="D2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" t="s">
         <v>18</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>19</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" t="s">
         <v>20</v>
       </c>
-      <c r="G2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>21</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>22</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>23</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>24</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>25</v>
-      </c>
-      <c r="N2" t="s">
-        <v>26</v>
       </c>
       <c r="O2" s="3">
         <v>3.9</v>
@@ -667,46 +670,46 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" t="s">
         <v>27</v>
       </c>
-      <c r="B3" t="s">
+      <c r="D3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" t="s">
         <v>28</v>
       </c>
-      <c r="C3" t="s">
+      <c r="F3" t="s">
         <v>29</v>
       </c>
-      <c r="D3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="G3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" t="s">
         <v>30</v>
       </c>
-      <c r="F3" t="s">
+      <c r="J3" t="s">
         <v>31</v>
       </c>
-      <c r="G3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="K3" t="s">
         <v>32</v>
       </c>
-      <c r="J3" t="s">
+      <c r="L3" t="s">
+        <v>28</v>
+      </c>
+      <c r="M3" t="s">
         <v>33</v>
       </c>
-      <c r="K3" t="s">
+      <c r="N3" t="s">
         <v>34</v>
-      </c>
-      <c r="L3" t="s">
-        <v>30</v>
-      </c>
-      <c r="M3" t="s">
-        <v>35</v>
-      </c>
-      <c r="N3" t="s">
-        <v>36</v>
       </c>
       <c r="O3" s="3">
         <v>2.78</v>
@@ -714,46 +717,46 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" t="s">
+        <v>36</v>
+      </c>
+      <c r="J4" t="s">
         <v>37</v>
       </c>
-      <c r="B4" t="s">
+      <c r="K4" t="s">
         <v>38</v>
       </c>
-      <c r="C4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H4" t="s">
-        <v>18</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="L4" t="s">
         <v>39</v>
       </c>
-      <c r="J4" t="s">
+      <c r="M4" t="s">
         <v>40</v>
       </c>
-      <c r="K4" t="s">
+      <c r="N4" t="s">
         <v>41</v>
-      </c>
-      <c r="L4" t="s">
-        <v>42</v>
-      </c>
-      <c r="M4" t="s">
-        <v>43</v>
-      </c>
-      <c r="N4" t="s">
-        <v>44</v>
       </c>
       <c r="O4" s="3">
         <v>3.8</v>
@@ -761,46 +764,46 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B5" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" t="s">
         <v>29</v>
       </c>
-      <c r="D5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" t="s">
-        <v>30</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I5" t="s">
+        <v>36</v>
+      </c>
+      <c r="J5" t="s">
         <v>31</v>
       </c>
-      <c r="G5" t="s">
-        <v>29</v>
-      </c>
-      <c r="H5" t="s">
-        <v>18</v>
-      </c>
-      <c r="I5" t="s">
-        <v>39</v>
-      </c>
-      <c r="J5" t="s">
-        <v>33</v>
-      </c>
       <c r="K5" t="s">
+        <v>22</v>
+      </c>
+      <c r="L5" t="s">
         <v>23</v>
       </c>
-      <c r="L5" t="s">
-        <v>24</v>
-      </c>
       <c r="M5" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="N5" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="O5" s="3">
         <v>3.87</v>
@@ -808,46 +811,46 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" t="s">
         <v>27</v>
       </c>
-      <c r="B6" t="s">
-        <v>49</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" t="s">
         <v>29</v>
       </c>
-      <c r="D6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="G6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I6" t="s">
         <v>30</v>
       </c>
-      <c r="F6" t="s">
+      <c r="J6" t="s">
         <v>31</v>
       </c>
-      <c r="G6" t="s">
-        <v>17</v>
-      </c>
-      <c r="H6" t="s">
-        <v>18</v>
-      </c>
-      <c r="I6" t="s">
+      <c r="K6" t="s">
         <v>32</v>
       </c>
-      <c r="J6" t="s">
-        <v>33</v>
-      </c>
-      <c r="K6" t="s">
-        <v>34</v>
-      </c>
       <c r="L6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M6" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="N6" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="O6" s="3">
         <v>3.14</v>
